--- a/Users Loads31.xlsx
+++ b/Users Loads31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.116311141141768</v>
+        <v>0.9109763044305025</v>
       </c>
       <c r="C2" t="n">
-        <v>6.544736223297445</v>
+        <v>5.42035597455115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3360935399416397</v>
+        <v>0.3916159078352299</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.901395243218419</v>
+        <v>1.638158160920575</v>
       </c>
       <c r="C3" t="n">
-        <v>8.600436450598067</v>
+        <v>7.134460611650357</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3074674700253436</v>
+        <v>0.3225422667979989</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.660053417679791</v>
+        <v>6.079602435919448</v>
       </c>
       <c r="C4" t="n">
-        <v>7.699700502708151</v>
+        <v>1.979481862038842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3118778557203887</v>
+        <v>0.1259375861562812</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.159840530633572</v>
+        <v>10.36425717539207</v>
       </c>
       <c r="C5" t="n">
-        <v>1.72065291131511</v>
+        <v>6.100294620253013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2433807253579099</v>
+        <v>0.5913387459474135</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.511910326560844</v>
+        <v>11.66027150238942</v>
       </c>
       <c r="C6" t="n">
-        <v>9.129070362281196</v>
+        <v>5.422559399327243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5253604244028687</v>
+        <v>0.07366027384034178</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.71694650119067</v>
+        <v>13.93848170668039</v>
       </c>
       <c r="C7" t="n">
-        <v>10.62905514192738</v>
+        <v>5.974593232243653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2076280256888742</v>
+        <v>0.1416518211395367</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.57907810643011</v>
+        <v>14.58921772289942</v>
       </c>
       <c r="C8" t="n">
-        <v>6.325023250812781</v>
+        <v>8.515524457823116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3447892688108172</v>
+        <v>0.5784807609727917</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.65803305828181</v>
+        <v>16.67543722073081</v>
       </c>
       <c r="C9" t="n">
-        <v>2.018904333893865</v>
+        <v>3.381293512705848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1564195081066574</v>
+        <v>0.1144702621016461</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.09497754957552</v>
+        <v>20.34267944875921</v>
       </c>
       <c r="C10" t="n">
-        <v>4.464597819324617</v>
+        <v>5.375826521813575</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1598057343417538</v>
+        <v>0.2749949791597684</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.25925951145908</v>
+        <v>20.3538207435102</v>
       </c>
       <c r="C11" t="n">
-        <v>8.812873245139285</v>
+        <v>3.005750153854144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2589816667538487</v>
+        <v>0.2767145687493126</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.17866847989311</v>
+        <v>24.82358453031581</v>
       </c>
       <c r="C12" t="n">
-        <v>5.135011201882725</v>
+        <v>6.699064243937002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2399214219094421</v>
+        <v>0.2530582518758684</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.04982275676071</v>
+        <v>28.16651581535384</v>
       </c>
       <c r="C13" t="n">
-        <v>8.980615312898644</v>
+        <v>3.872966790228051</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3112964746021711</v>
+        <v>0.3899179220229823</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.74084994943829</v>
+        <v>29.15859931533589</v>
       </c>
       <c r="C14" t="n">
-        <v>4.388771662682122</v>
+        <v>7.005716775175597</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2247594306898635</v>
+        <v>0.3236390957001383</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.03011125415996</v>
+        <v>33.24804605458015</v>
       </c>
       <c r="C15" t="n">
-        <v>6.522901046884892</v>
+        <v>5.724809059176711</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2889022142641879</v>
+        <v>0.3678617168752624</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.1079284698005</v>
+        <v>33.62434594457203</v>
       </c>
       <c r="C16" t="n">
-        <v>7.519505253423271</v>
+        <v>6.689414310395331</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4350101036482207</v>
+        <v>0.4536522848556388</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.64139399521891</v>
+        <v>34.91970679154574</v>
       </c>
       <c r="C17" t="n">
-        <v>2.250422507133525</v>
+        <v>7.656161452024193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5197360832313056</v>
+        <v>0.2050900543727616</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23.88750073471829</v>
+        <v>38.85566220379697</v>
       </c>
       <c r="C18" t="n">
-        <v>9.462240392841744</v>
+        <v>3.978402876021916</v>
       </c>
       <c r="D18" t="n">
-        <v>0.469209924581644</v>
+        <v>0.1518078407363146</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.93431730120414</v>
+        <v>41.03979574356148</v>
       </c>
       <c r="C19" t="n">
-        <v>5.608833051143684</v>
+        <v>8.434836145572826</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1933333820887638</v>
+        <v>0.4443654477129495</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.90026408390298</v>
+        <v>41.26943381108627</v>
       </c>
       <c r="C20" t="n">
-        <v>6.596291986922527</v>
+        <v>8.086769316822016</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3496659675962273</v>
+        <v>0.3726457391447789</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.84156837692736</v>
+        <v>47.92811306043757</v>
       </c>
       <c r="C21" t="n">
-        <v>5.636336057389512</v>
+        <v>7.447702342611043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1457990815282912</v>
+        <v>0.4246389257598703</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.65431376742547</v>
+        <v>52.87500315833053</v>
       </c>
       <c r="C22" t="n">
-        <v>9.44902403146785</v>
+        <v>4.872392600642623</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3300549512767318</v>
+        <v>0.2203663517536588</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28.79633006570245</v>
+        <v>53.81810030610428</v>
       </c>
       <c r="C23" t="n">
-        <v>3.40017552418933</v>
+        <v>1.406593308711369</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234715614412962</v>
+        <v>0.1775216716426652</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31.68751739221516</v>
+        <v>54.87581015734637</v>
       </c>
       <c r="C24" t="n">
-        <v>2.477907302374464</v>
+        <v>8.824491547768673</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2063557172376688</v>
+        <v>0.3539084245005154</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>34.78629389574366</v>
+        <v>55.60630278815479</v>
       </c>
       <c r="C25" t="n">
-        <v>9.051690547048807</v>
+        <v>10.21656531092406</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5000006684556415</v>
+        <v>0.2430689450270522</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34.84585658414608</v>
+        <v>60.05515199389572</v>
       </c>
       <c r="C26" t="n">
-        <v>9.805520029459096</v>
+        <v>3.484327361177428</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2551142296092067</v>
+        <v>0.3548272884657371</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>37.73962856315985</v>
+        <v>60.08913028374067</v>
       </c>
       <c r="C27" t="n">
-        <v>9.13068370390355</v>
+        <v>9.71250920410143</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3649121712887501</v>
+        <v>0.3363675326092957</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>38.02914967934606</v>
+        <v>62.16369815869664</v>
       </c>
       <c r="C28" t="n">
-        <v>4.696776626133831</v>
+        <v>6.264487174233611</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2577053311878347</v>
+        <v>0.3514577807736202</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>38.13767350765555</v>
+        <v>62.61110492007722</v>
       </c>
       <c r="C29" t="n">
-        <v>13.07217289246765</v>
+        <v>7.289499698996765</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3368241466125056</v>
+        <v>0.6069529374863136</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38.96363394323736</v>
+        <v>65.10162168761718</v>
       </c>
       <c r="C30" t="n">
-        <v>11.13416941960774</v>
+        <v>2.164275962161424</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3978665674784206</v>
+        <v>0.1719288454204752</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.26035442532142</v>
+        <v>65.58836294641718</v>
       </c>
       <c r="C31" t="n">
-        <v>3.665627662276249</v>
+        <v>5.18391919801813</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1221688185286908</v>
+        <v>0.3748000356587885</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.36087688787094</v>
+        <v>67.21671893973857</v>
       </c>
       <c r="C32" t="n">
-        <v>5.29579708157668</v>
+        <v>8.596164401739692</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1176941423843633</v>
+        <v>0.2851810171069831</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>42.24058119728686</v>
+        <v>68.67346906800238</v>
       </c>
       <c r="C33" t="n">
-        <v>8.97378040714062</v>
+        <v>3.734570538827523</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5107725797373747</v>
+        <v>0.09167330611380417</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>43.04961323248875</v>
+        <v>69.99991937274972</v>
       </c>
       <c r="C34" t="n">
-        <v>4.894580177579368</v>
+        <v>6.359857221058892</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1389956610240719</v>
+        <v>0.1358569761556661</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>43.1043856780942</v>
+        <v>72.96304588707611</v>
       </c>
       <c r="C35" t="n">
-        <v>8.503864401700936</v>
+        <v>9.184357820187333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3480596724087627</v>
+        <v>0.4850404447350762</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43.64742753481545</v>
+        <v>73.29265490562489</v>
       </c>
       <c r="C36" t="n">
-        <v>3.801297799589557</v>
+        <v>5.915589482924292</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2665757600029302</v>
+        <v>0.3631948598412226</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44.08322092223361</v>
+        <v>75.12618599250582</v>
       </c>
       <c r="C37" t="n">
-        <v>1.374714242566712</v>
+        <v>4.752462100028523</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1518268372142209</v>
+        <v>0.3317971455525202</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44.12820729751081</v>
+        <v>75.63385800954948</v>
       </c>
       <c r="C38" t="n">
-        <v>5.321617249627378</v>
+        <v>2.357294254093131</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4716576593965524</v>
+        <v>0.2621030146130596</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>45.04098233213831</v>
+        <v>76.19452248181332</v>
       </c>
       <c r="C39" t="n">
-        <v>11.40142910427466</v>
+        <v>9.736246394522437</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4937896937833665</v>
+        <v>0.5431868362681583</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>45.35903652489301</v>
+        <v>76.42237153937042</v>
       </c>
       <c r="C40" t="n">
-        <v>8.812959310760228</v>
+        <v>3.950025591529989</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4474348335017969</v>
+        <v>0.2580699756172374</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>46.7310817871643</v>
+        <v>76.65454150387279</v>
       </c>
       <c r="C41" t="n">
-        <v>4.21555540517688</v>
+        <v>8.765199629437127</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1286934371717657</v>
+        <v>0.4954549224288209</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>47.6266578106444</v>
+        <v>76.8375771057369</v>
       </c>
       <c r="C42" t="n">
-        <v>1.728395943300936</v>
+        <v>6.733959984376426</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2170962685446734</v>
+        <v>0.3731340432189877</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>48.32687824552389</v>
+        <v>78.46869163210481</v>
       </c>
       <c r="C43" t="n">
-        <v>5.265262515772749</v>
+        <v>5.576382465426195</v>
       </c>
       <c r="D43" t="n">
-        <v>0.48451712572193</v>
+        <v>0.2273340523153299</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>48.43418320950358</v>
+        <v>78.76366124944576</v>
       </c>
       <c r="C44" t="n">
-        <v>4.442585019117494</v>
+        <v>4.113063497307886</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2096629948056201</v>
+        <v>0.1407061813276306</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>49.27789774344259</v>
+        <v>82.64151553657803</v>
       </c>
       <c r="C45" t="n">
-        <v>4.599360289120177</v>
+        <v>9.108289087867371</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3281758705064287</v>
+        <v>0.3988459969957643</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>49.33038045942122</v>
+        <v>85.79578537647352</v>
       </c>
       <c r="C46" t="n">
-        <v>11.67304821590833</v>
+        <v>4.063635869436606</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3877040996646793</v>
+        <v>0.1847898828119598</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>52.04647245021587</v>
+        <v>85.91799286412692</v>
       </c>
       <c r="C47" t="n">
-        <v>6.680273283682196</v>
+        <v>7.766705950098695</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0716878601603101</v>
+        <v>0.3090807309215992</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>54.03803517299063</v>
+        <v>86.6627237190956</v>
       </c>
       <c r="C48" t="n">
-        <v>6.96219410148534</v>
+        <v>3.603388530957886</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1971097989386818</v>
+        <v>0.2271049387380557</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>55.53751412114679</v>
+        <v>90.42937533669405</v>
       </c>
       <c r="C49" t="n">
-        <v>4.843006693865615</v>
+        <v>8.294320105975279</v>
       </c>
       <c r="D49" t="n">
-        <v>0.440939721905265</v>
+        <v>0.2373014631739562</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>55.87627280905037</v>
+        <v>95.97824763139295</v>
       </c>
       <c r="C50" t="n">
-        <v>6.625294792852692</v>
+        <v>8.866633048986669</v>
       </c>
       <c r="D50" t="n">
-        <v>0.400739712164377</v>
+        <v>0.2927701154513548</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>55.90137368792404</v>
+        <v>96.83086788014631</v>
       </c>
       <c r="C51" t="n">
-        <v>6.584183983896876</v>
+        <v>6.461897012403064</v>
       </c>
       <c r="D51" t="n">
-        <v>0.447071442576783</v>
+        <v>0.193351653807232</v>
       </c>
     </row>
     <row r="52">
@@ -1155,657 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>55.90184989890828</v>
+        <v>98.12236479417018</v>
       </c>
       <c r="C52" t="n">
-        <v>4.082633533966884</v>
+        <v>2.418813900933099</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4039983633818749</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>56.45814374500896</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.451760794611079</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.3696287750391162</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>59.86526523373801</v>
-      </c>
-      <c r="C54" t="n">
-        <v>11.61534902164206</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.3606501653017734</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>60.95670699513501</v>
-      </c>
-      <c r="C55" t="n">
-        <v>8.074442878691571</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.2425267683909251</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>61.14829972158184</v>
-      </c>
-      <c r="C56" t="n">
-        <v>8.291389030951128</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.2145424594393506</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>63.15329006533474</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3.652949654021106</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.4605937531989743</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>64.47555564667651</v>
-      </c>
-      <c r="C58" t="n">
-        <v>6.913064334364375</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5979375875119841</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>64.84188820618361</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.279059411801138</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.1822122061850448</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>65.03674514174722</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.424291618338419</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.1547084453490589</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>65.3816441859756</v>
-      </c>
-      <c r="C61" t="n">
-        <v>7.413796165639196</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.3373430643543768</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>66.00122547305051</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2.46006100499968</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.2780444421373728</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>66.46517441867887</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.489069831455735</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.636660571956521</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>67.5483661056471</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3.678688264185791</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.517966514655832</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>68.12239852438933</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3.23815753917552</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.1233266267526914</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>70.93045854162366</v>
-      </c>
-      <c r="C66" t="n">
-        <v>7.540471580659911</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.3198840612686287</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>72.78875014729623</v>
-      </c>
-      <c r="C67" t="n">
-        <v>8.318093872394584</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.3315869875663854</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>72.93554132250152</v>
-      </c>
-      <c r="C68" t="n">
-        <v>9.938784720577447</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.4418059911050495</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>73.68236906140469</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5.432662507140814</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.3987711364215716</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>73.80244878163677</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3.541891387648615</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.2165096711260478</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>74.33641177544784</v>
-      </c>
-      <c r="C71" t="n">
-        <v>9.08674556575065</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.4207655450164741</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>74.3983545724482</v>
-      </c>
-      <c r="C72" t="n">
-        <v>6.216888536340853</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.2185678365484282</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>76.58716421688106</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4.790877847441161</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.2980113386984954</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>77.39576435444745</v>
-      </c>
-      <c r="C74" t="n">
-        <v>5.640358507997459</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.3969001977434536</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>77.41693278105006</v>
-      </c>
-      <c r="C75" t="n">
-        <v>5.772472070438367</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.4680226381036052</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>78.17865936461085</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5.089680686453297</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.2101613088700545</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>79.50238213397868</v>
-      </c>
-      <c r="C77" t="n">
-        <v>5.621432145640898</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.2637676825513054</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>79.60926553056505</v>
-      </c>
-      <c r="C78" t="n">
-        <v>7.813090891907008</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.4242798399176151</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>81.17417340394589</v>
-      </c>
-      <c r="C79" t="n">
-        <v>6.946711063528455</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.1981954770422642</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>81.47556833498653</v>
-      </c>
-      <c r="C80" t="n">
-        <v>9.80453458385375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.2768858617803587</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>81.6951818200384</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.624726571253726</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.09091497027003348</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>82.06849351366725</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.543488466708754</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.1165121072219423</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>82.40221919831056</v>
-      </c>
-      <c r="C83" t="n">
-        <v>4.411664036115095</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.2152288835258499</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>84.62502654393589</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.051571070210418</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.1693887228162125</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>85.99925281323503</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5.850354473075536</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.3140579352927296</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>88.56797734300778</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.97325788453185</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.1322036114217845</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>88.97907298441631</v>
-      </c>
-      <c r="C87" t="n">
-        <v>7.448478217121282</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.3356294171464044</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>89.08114915738879</v>
-      </c>
-      <c r="C88" t="n">
-        <v>6.028059284289441</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.07359564563725086</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>89.43189992913891</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3.547830652721095</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.2079696827126148</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>92.3191798463497</v>
-      </c>
-      <c r="C90" t="n">
-        <v>7.720610316361292</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.4688237492095483</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>94.28173956669426</v>
-      </c>
-      <c r="C91" t="n">
-        <v>7.8973890072091</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.483245839655883</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>94.69494601053781</v>
-      </c>
-      <c r="C92" t="n">
-        <v>9.645752497229619</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.4803565994837583</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>95.11440404552435</v>
-      </c>
-      <c r="C93" t="n">
-        <v>4.980573129445929</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.3218940151898881</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>96.36287359205356</v>
-      </c>
-      <c r="C94" t="n">
-        <v>9.314850765750169</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.2065247721351338</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>97.25396044622717</v>
-      </c>
-      <c r="C95" t="n">
-        <v>5.990781953028367</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.5270345703069172</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>97.77867280241823</v>
-      </c>
-      <c r="C96" t="n">
-        <v>9.197944181205855</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.2940865833678198</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>98.45191030005981</v>
-      </c>
-      <c r="C97" t="n">
-        <v>4.288829944426313</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.1652704293686252</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>99.30001753450625</v>
-      </c>
-      <c r="C98" t="n">
-        <v>8.440432474481243</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.2144624653914057</v>
+        <v>0.1843728204475226</v>
       </c>
     </row>
   </sheetData>
